--- a/doc/计划.xlsx
+++ b/doc/计划.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="5" r:id="rId1"/>
+    <sheet name="服务器配置" sheetId="6" r:id="rId2"/>
+    <sheet name="其它内容" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>接口核对</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,27 +26,391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>服务器部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发包测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发包测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性一周</t>
+    <t>2小时*5+2天=3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、8-5、12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、13-5、14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时*5=3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时*10+4天=6天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、15-6、4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时*15+6天=9天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换正式美术资源和发包测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、5-6、11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、12-6、17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争取可以正式发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理服务器需求分析和开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理服务器开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、1-7、2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理服务器正式上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、23-7、2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上均以每天至少2小时工作时间为准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <r>
+      <t>cpu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>带宽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>硬盘</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>计划购买最晚时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（随机分配）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 8GB mn4</t>
+    </r>
+  </si>
+  <si>
+    <t>5Mbps（经典网络）</t>
+  </si>
+  <si>
+    <t>100 GB</t>
+  </si>
+  <si>
+    <t>测试(建议最少三月)</t>
+  </si>
+  <si>
+    <t>3*500=1500</t>
+  </si>
+  <si>
+    <t>1Mbps（经典网络）</t>
+  </si>
+  <si>
+    <t>60(系统)200（挂载）</t>
+  </si>
+  <si>
+    <t>正式数据库和登录，平台等</t>
+  </si>
+  <si>
+    <t>3*750=2250</t>
+  </si>
+  <si>
+    <t>正式上线前一周购买</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 32GB mn4</t>
+    </r>
+  </si>
+  <si>
+    <t>10Mbps（经典网络）</t>
+  </si>
+  <si>
+    <t>游戏服务器（正式）</t>
+  </si>
+  <si>
+    <t>3*1800=5400</t>
+  </si>
+  <si>
+    <t>以上方案仅能满足正常游戏需求，但是面对攻击，比较薄弱</t>
+  </si>
+  <si>
+    <t>以上统计均以阿里云做参考</t>
+  </si>
+  <si>
+    <t>2017-5-13之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器可能会根据压力测试情况以及正式上线后的流量适当调整带宽和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cpu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存；稳定方式服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，应该是两到三台组成，分部为数据库，内存数据库，登录服务器以及代理平台</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +418,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +436,45 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,21 +494,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,21 +812,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,8 +837,8 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -427,69 +848,393 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>42868</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>42910</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8">
+        <v>500</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>42883</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="8">
+        <v>750</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>42889</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>42896</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>42903</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>42910</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1800</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>